--- a/storage/Sample_template.xlsx
+++ b/storage/Sample_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="500"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sample_template" sheetId="12" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="244">
   <si>
     <t>sample_label</t>
   </si>
@@ -812,6 +812,42 @@
   </si>
   <si>
     <t>Helicobacter pylori 26695</t>
+  </si>
+  <si>
+    <t>Candida glabrata</t>
+  </si>
+  <si>
+    <t>Escherichia coli K-12</t>
+  </si>
+  <si>
+    <t>Saccharomyces cerevisiae S288C</t>
+  </si>
+  <si>
+    <t>Synechococcus_elongatus_PCC7942</t>
+  </si>
+  <si>
+    <t>Staphylococcus aureus subsp</t>
+  </si>
+  <si>
+    <t>Pseudomonas aeruginosa PAO1</t>
+  </si>
+  <si>
+    <t>Klebsiella</t>
+  </si>
+  <si>
+    <t>Candida albicans A</t>
+  </si>
+  <si>
+    <t>Candida albicans B</t>
+  </si>
+  <si>
+    <t>Candida albicans mitochondrion</t>
+  </si>
+  <si>
+    <t>Kluyveromyces.marxianus</t>
+  </si>
+  <si>
+    <t>Enterococcus.faecalis</t>
   </si>
 </sst>
 </file>
@@ -819,10 +855,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -863,8 +899,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF800080"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -878,15 +956,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -901,104 +1013,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF800080"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1013,9 +1028,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1053,43 +1089,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,7 +1107,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,13 +1119,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,73 +1233,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1215,13 +1251,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,54 +1326,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1370,11 +1358,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1387,16 +1412,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1405,123 +1441,123 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1987,8 +2023,8 @@
   <sheetPr/>
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.25" customHeight="1"/>
@@ -2047,33 +2083,36 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
-      <formula1>Species</formula1>
-    </dataValidation>
+  <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>Strategy</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
+      <formula1>'Library and Platform Terms'!$A$115:$A$127</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>Source</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+      <formula1>"fastq"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
+      <formula1>Applications</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>platform</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+      <formula1>Selection</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+      <formula1>"paired,single"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
-      <formula1>"paired,single"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>Source</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
-      <formula1>platform</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
-      <formula1>Applications</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
-      <formula1>Selection</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
-      <formula1>"fastq"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L1048576">
+      <formula1>Species</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -2091,10 +2130,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75"/>
@@ -3048,6 +3087,66 @@
     <row r="115" spans="1:1">
       <c r="A115" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
